--- a/src/main/webapp/resources/upload/excel/sample.xlsx
+++ b/src/main/webapp/resources/upload/excel/sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhrud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E249081A-E407-422A-B35C-4210B2EF3B3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>다운 일자 : ${date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,6 +89,19 @@
   </si>
   <si>
     <t>${list.ingreActive == 1 ? '활성화' : '비활성화'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15cm : ${list.ingreKcal} kcal
+30cm : ${list.ingreKcal *2} kcal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,40 +126,27 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : ${count}개</t>
+      <t xml:space="preserve"> : ${size1}개</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15cm : ${list.ingreKcal} kcal
-30cm : ${list.ingreKcal *2} kcal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${i.index+1}</t>
+    <t>&lt;jx:forEach items="${group.items}" var="list"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${ingreList}" groupBy="ingreType"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${list.ingreType}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${ingreList}" groupBy="ingreType"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${group.items}" var="list" varStatus="i"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -204,13 +197,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,22 +282,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,80 +593,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -602,46 +678,43 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
